--- a/data/davis matches/davis_2017.xlsx
+++ b/data/davis matches/davis_2017.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1080=</t>
+          <t>1079=</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>840</t>
         </is>
       </c>
       <c r="AB7" t="n">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1080=</t>
+          <t>1079=</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>840</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>278</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -2762,7 +2762,7 @@
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AB26" t="n">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>278</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>278</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>660</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>827</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>623</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>827</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>623</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -4068,12 +4068,12 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>306</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>314</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>862</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>136</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>337=</t>
+          <t>338=</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>286</t>
         </is>
       </c>
       <c r="AB46" t="n">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>337=</t>
+          <t>338=</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr"/>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>286</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -5140,12 +5140,12 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>184</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>868</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
@@ -5232,12 +5232,12 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr"/>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>452</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -5433,12 +5433,12 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="AB56" t="n">
@@ -5540,7 +5540,7 @@
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB57" t="n">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr"/>
@@ -5724,12 +5724,12 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>184</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>868</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>452</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>336</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr"/>
@@ -6469,14 +6469,10 @@
           <t>22 Feb 1991</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>1435</t>
-        </is>
-      </c>
+      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="AB67" t="n">
@@ -6563,7 +6559,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>547=</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr"/>
@@ -6805,7 +6801,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>336</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr"/>
@@ -6984,7 +6980,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>213</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
@@ -7712,7 +7708,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>213</t>
         </is>
       </c>
       <c r="X81" t="inlineStr"/>
@@ -7974,12 +7970,12 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>861=</t>
+          <t>864=</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr"/>
@@ -8163,7 +8159,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr"/>
@@ -8346,12 +8342,12 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>861=</t>
+          <t>864=</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr"/>
@@ -8518,7 +8514,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="X90" t="inlineStr"/>
@@ -8604,12 +8600,12 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>418</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>599</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr"/>
@@ -8698,7 +8694,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -8964,7 +8960,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>660</t>
         </is>
       </c>
       <c r="X95" t="inlineStr"/>
@@ -9066,7 +9062,7 @@
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AB96" t="n">
@@ -9156,7 +9152,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>623</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>
@@ -9496,7 +9492,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>660</t>
         </is>
       </c>
       <c r="X101" t="inlineStr"/>
@@ -9580,12 +9576,12 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>291</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr"/>
@@ -9668,7 +9664,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>452</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
@@ -9832,12 +9828,12 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>184</t>
         </is>
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>868</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr"/>
@@ -10028,7 +10024,7 @@
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB107" t="n">
@@ -10180,12 +10176,12 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>184</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>868</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr"/>
@@ -10340,7 +10336,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>452</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
@@ -10684,7 +10680,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>213</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
@@ -10876,7 +10872,7 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>213</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
@@ -10971,7 +10967,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>547=</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr"/>
@@ -11056,12 +11052,12 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>312</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr"/>
@@ -11310,12 +11306,12 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>861=</t>
+          <t>864=</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr"/>
@@ -11400,12 +11396,12 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>951</t>
         </is>
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>540=</t>
+          <t>536=</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr"/>
@@ -11745,7 +11741,7 @@
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
@@ -11755,7 +11751,7 @@
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
@@ -11842,12 +11838,12 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>861=</t>
+          <t>864=</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr"/>
@@ -12088,7 +12084,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
@@ -12180,12 +12176,12 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>291</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr"/>
@@ -12277,7 +12273,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>547=</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr"/>
@@ -12440,12 +12436,12 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>109</t>
         </is>
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>540</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr"/>
@@ -12532,7 +12528,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="X136" t="inlineStr">
@@ -12632,7 +12628,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>631</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
@@ -12809,7 +12805,7 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>547=</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr"/>
@@ -12819,6 +12815,902 @@
         <v>2017</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>5</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Lucas Pouille</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>23 Feb 1994</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>7</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6</v>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>David Goffin</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>07 Dec 1990</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>864=</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>6</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Jo-Wilfried Tsonga</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>17 Apr 1985</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Steve Darcis</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>13 Mar 1984</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>6</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>7</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>Richard Gasquet</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>Pierre-Hugues Herbert</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>18 Jun 1986</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>18 Mar 1991</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="AB144" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>Ruben Bemelmans</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Joris De Loore</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>14 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>21 Apr 1993</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>6</v>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>5</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>MATCH 4</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Jo-Wilfried Tsonga</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>17 Apr 1985</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>7</v>
+      </c>
+      <c r="G147" t="n">
+        <v>6</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>7</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>MATCH 4</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>David Goffin</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>07 Dec 1990</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>864=</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>6</v>
+      </c>
+      <c r="G148" t="n">
+        <v>6</v>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>MATCH 5</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Lucas Pouille</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>23 Feb 1994</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 26 Nov 2017</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - Rebound Ace, Indoor</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>MATCH 5</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Steve Darcis</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>13 Mar 1984</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
